--- a/ExcelData/Excel_Output.xlsx
+++ b/ExcelData/Excel_Output.xlsx
@@ -21,7 +21,7 @@
     <t>Rs. 3.30 Lakh</t>
   </si>
   <si>
-    <t>Launch Date : 30 Mar 2024</t>
+    <t>Expected Launch Date : 30 Mar 2024</t>
   </si>
   <si>
     <t>Honda Activa Electric</t>
@@ -30,7 +30,7 @@
     <t>Rs. 1.10 Lakh</t>
   </si>
   <si>
-    <t>Launch Date : Mar 2024</t>
+    <t>Expected Launch : Mar 2024</t>
   </si>
   <si>
     <t>Honda Forza 350</t>
@@ -51,7 +51,7 @@
     <t>Rs. 79,000</t>
   </si>
   <si>
-    <t>Launch Date : Apr 2024</t>
+    <t>Expected Launch : Apr 2024</t>
   </si>
   <si>
     <t>Honda PCX160</t>
@@ -60,7 +60,7 @@
     <t>Rs. 1.20 Lakh</t>
   </si>
   <si>
-    <t>Launch Date : Jun 2024</t>
+    <t>Expected Launch : Jun 2024</t>
   </si>
   <si>
     <t>Honda CBR150R</t>
@@ -69,7 +69,7 @@
     <t>Rs. 1.70 Lakh</t>
   </si>
   <si>
-    <t>Launch Date : Unrevealed</t>
+    <t>Expected Launch : Unrevealed</t>
   </si>
   <si>
     <t>Honda Rebel 300</t>
